--- a/R/TRAINED PANEL/Panel_3steps.xlsx
+++ b/R/TRAINED PANEL/Panel_3steps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctalens\AppData\Local\Temp\scp39605\home\ctalens\R\TRAINED PANEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctalens\AppData\Local\Temp\scp20932\home\ctalens\R\TRAINED PANEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AEE23C-A152-492E-B18A-5689D7F06C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742B418C-B4B5-46B1-9115-2D0FDB45BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E42975C8-FED2-4488-B191-FC7CAD612AE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{E42975C8-FED2-4488-B191-FC7CAD612AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="step 1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>ELASTICITY</t>
   </si>
   <si>
-    <t>COMPACTION</t>
-  </si>
-  <si>
     <t>CHARACTERISTIC ODOUR</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>ADHERENCE</t>
-  </si>
-  <si>
-    <t>GRAINY</t>
   </si>
   <si>
     <t>PASTINESS</t>
@@ -105,12 +99,6 @@
   </si>
   <si>
     <t>REFERENCE</t>
-  </si>
-  <si>
-    <t>OUTSIDE COLOUR</t>
-  </si>
-  <si>
-    <t>INSIDE COLOUR</t>
   </si>
   <si>
     <t>FRAGILITY</t>
@@ -165,6 +153,18 @@
   </si>
   <si>
     <t>JUDGE8</t>
+  </si>
+  <si>
+    <t>COMPACTNESS</t>
+  </si>
+  <si>
+    <t>GRAININESS</t>
+  </si>
+  <si>
+    <t>OUTER COLOUR</t>
+  </si>
+  <si>
+    <t>INNER COLOUR</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +400,13 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,33 +723,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4BE9DF-5DA5-4948-8A87-EDBA84B17990}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D5:T41"/>
+  <dimension ref="D5:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="12" style="5"/>
-    <col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="7" width="12" style="5"/>
     <col min="8" max="8" width="16" style="5" customWidth="1"/>
     <col min="9" max="9" width="12" style="5"/>
-    <col min="10" max="10" width="19.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="6" customWidth="1"/>
     <col min="13" max="13" width="28" style="5" customWidth="1"/>
     <col min="14" max="14" width="21" style="7" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" style="6" customWidth="1"/>
     <col min="20" max="16384" width="12" style="5"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:19" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
@@ -756,48 +763,48 @@
         <v>3</v>
       </c>
       <c r="H5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>5</v>
-      </c>
       <c r="J5" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="O5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="Q5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="R5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="S5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="30" t="s">
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="31">
         <v>5</v>
@@ -842,12 +849,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D7" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5">
         <v>6</v>
@@ -892,12 +899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5">
         <v>6</v>
@@ -942,12 +949,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5">
         <v>6</v>
@@ -992,12 +999,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="30">
         <v>5</v>
@@ -1042,12 +1049,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="30">
         <v>6</v>
@@ -1092,12 +1099,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5">
         <v>6</v>
@@ -1142,12 +1149,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="30">
         <v>6</v>
@@ -1192,12 +1199,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" s="31">
         <v>6</v>
@@ -1242,12 +1249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5">
         <v>7</v>
@@ -1292,12 +1299,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5">
         <v>7</v>
@@ -1342,12 +1349,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5">
         <v>6</v>
@@ -1392,12 +1399,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D18" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F18" s="31">
         <v>6</v>
@@ -1442,12 +1449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" s="5">
         <v>6</v>
@@ -1492,12 +1499,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" s="5">
         <v>6</v>
@@ -1542,12 +1549,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D21" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F21" s="5">
         <v>6</v>
@@ -1592,112 +1599,112 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="31">
+        <v>5</v>
+      </c>
+      <c r="G22" s="31">
+        <v>3</v>
+      </c>
+      <c r="H22" s="31">
+        <v>6</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0</v>
+      </c>
+      <c r="J22" s="31">
+        <v>3</v>
+      </c>
+      <c r="K22" s="31">
+        <v>8</v>
+      </c>
+      <c r="L22" s="32">
+        <v>2</v>
+      </c>
+      <c r="M22" s="31">
+        <v>3</v>
+      </c>
+      <c r="N22" s="32">
+        <v>3</v>
+      </c>
+      <c r="O22" s="30">
+        <v>1</v>
+      </c>
+      <c r="P22" s="34">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>2</v>
+      </c>
+      <c r="R22" s="32">
+        <v>3</v>
+      </c>
+      <c r="S22" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>7</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3</v>
+      </c>
+      <c r="O23" s="30">
+        <v>2</v>
+      </c>
+      <c r="P23" s="34">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>2</v>
+      </c>
+      <c r="R23" s="32">
+        <v>0</v>
+      </c>
+      <c r="S23" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="31">
-        <v>5</v>
-      </c>
-      <c r="G22" s="31">
-        <v>3</v>
-      </c>
-      <c r="H22" s="31">
-        <v>6</v>
-      </c>
-      <c r="I22" s="31">
-        <v>0</v>
-      </c>
-      <c r="J22" s="31">
-        <v>3</v>
-      </c>
-      <c r="K22" s="31">
-        <v>8</v>
-      </c>
-      <c r="L22" s="32">
-        <v>2</v>
-      </c>
-      <c r="M22" s="31">
-        <v>3</v>
-      </c>
-      <c r="N22" s="32">
-        <v>3</v>
-      </c>
-      <c r="O22" s="30">
-        <v>1</v>
-      </c>
-      <c r="P22" s="34">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="30">
-        <v>2</v>
-      </c>
-      <c r="R22" s="32">
-        <v>3</v>
-      </c>
-      <c r="S22" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5</v>
-      </c>
-      <c r="G23" s="5">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5">
-        <v>2</v>
-      </c>
-      <c r="J23" s="5">
-        <v>2</v>
-      </c>
-      <c r="K23" s="5">
-        <v>7</v>
-      </c>
-      <c r="L23" s="7">
-        <v>5</v>
-      </c>
-      <c r="M23" s="5">
-        <v>3</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3</v>
-      </c>
-      <c r="O23" s="30">
-        <v>2</v>
-      </c>
-      <c r="P23" s="34">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="30">
-        <v>2</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5">
         <v>6</v>
@@ -1742,12 +1749,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D25" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5">
         <v>6</v>
@@ -1793,12 +1800,12 @@
       </c>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D26" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F26" s="31">
         <v>6</v>
@@ -1843,12 +1850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F27" s="5">
         <v>6</v>
@@ -1893,12 +1900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D28" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F28" s="5">
         <v>5</v>
@@ -1943,12 +1950,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F29" s="5">
         <v>6</v>
@@ -1993,12 +2000,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D30" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F30" s="31">
         <v>6</v>
@@ -2043,12 +2050,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D31" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F31" s="5">
         <v>6</v>
@@ -2093,12 +2100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D32" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5">
         <v>5</v>
@@ -2143,12 +2150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D33" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F33" s="5">
         <v>6</v>
@@ -2190,12 +2197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D34" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F34" s="31">
         <v>6</v>
@@ -2240,12 +2247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D35" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F35" s="5">
         <v>5</v>
@@ -2290,12 +2297,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D36" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F36" s="5">
         <v>6</v>
@@ -2340,12 +2347,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D37" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F37" s="5">
         <v>6</v>
@@ -2390,78 +2397,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="5">
-        <f>AVERAGE(F6:F37)</f>
-        <v>5.84375</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:S38" si="0">AVERAGE(G6:G37)</f>
-        <v>2.46875</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="0"/>
-        <v>5.375</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.71875</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="0"/>
-        <v>1.78125</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="0"/>
-        <v>6.15625</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="0"/>
-        <v>3.21875</v>
-      </c>
-      <c r="M38" s="5">
-        <f t="shared" si="0"/>
-        <v>3.09375</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="0"/>
-        <v>2.34375</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3225806451612903</v>
-      </c>
-      <c r="P38" s="5">
-        <f t="shared" si="0"/>
-        <v>6.34375</v>
-      </c>
-      <c r="Q38" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4375</v>
-      </c>
-      <c r="R38" s="5">
-        <f t="shared" si="0"/>
-        <v>2.1875</v>
-      </c>
-      <c r="S38" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0625</v>
-      </c>
-    </row>
-    <row r="40" spans="4:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="6"/>
-      <c r="N40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="6"/>
-    </row>
-    <row r="41" spans="4:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="6"/>
-      <c r="N41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="6"/>
-    </row>
+    <row r="39" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2473,28 +2410,28 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="D4:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="12" style="5"/>
-    <col min="5" max="7" width="22.85546875" style="5" customWidth="1"/>
+    <col min="5" max="7" width="22.83203125" style="5" customWidth="1"/>
     <col min="8" max="9" width="12" style="5"/>
-    <col min="10" max="11" width="19.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="6" customWidth="1"/>
+    <col min="10" max="11" width="19.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="6" customWidth="1"/>
     <col min="13" max="13" width="28" style="5" customWidth="1"/>
     <col min="14" max="14" width="21" style="7" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" style="6" customWidth="1"/>
     <col min="20" max="16384" width="12" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:19" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
@@ -2502,104 +2439,104 @@
         <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="12">
+        <v>2</v>
+      </c>
+      <c r="O5" s="12">
+        <v>2</v>
+      </c>
+      <c r="P5" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>7</v>
-      </c>
-      <c r="L5" s="12">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>2</v>
-      </c>
-      <c r="N5" s="12">
-        <v>2</v>
-      </c>
-      <c r="O5" s="12">
-        <v>2</v>
-      </c>
-      <c r="P5" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="12">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>7.5</v>
@@ -2644,12 +2581,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>7.5</v>
@@ -2694,12 +2631,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
@@ -2744,12 +2681,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>7.5</v>
@@ -2794,12 +2731,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>7.5</v>
@@ -2844,12 +2781,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:19" ht="15" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>7.5</v>
@@ -2894,12 +2831,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>7.5</v>
@@ -2944,12 +2881,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
         <v>7</v>
@@ -2994,12 +2931,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:19" ht="15" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>7</v>
@@ -3044,12 +2981,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
         <v>7.5</v>
@@ -3094,12 +3031,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2">
         <v>7.5</v>
@@ -3144,12 +3081,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:19" ht="15" x14ac:dyDescent="0.2">
       <c r="D17" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2">
         <v>7.5</v>
@@ -3194,12 +3131,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2">
         <v>7.5</v>
@@ -3244,12 +3181,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2">
         <v>7.5</v>
@@ -3294,12 +3231,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:19" ht="15" x14ac:dyDescent="0.2">
       <c r="D20" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2">
         <v>8</v>
@@ -3344,12 +3281,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2">
         <v>7.5</v>
@@ -3394,12 +3331,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2">
         <v>7.5</v>
@@ -3444,12 +3381,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:19" ht="15" x14ac:dyDescent="0.2">
       <c r="D23" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2">
         <v>8</v>
@@ -3494,12 +3431,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2">
         <v>7.5</v>
@@ -3544,12 +3481,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2">
         <v>7.5</v>
@@ -3594,12 +3531,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:19" ht="15" x14ac:dyDescent="0.2">
       <c r="D26" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2">
         <v>7</v>
@@ -3644,12 +3581,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2">
         <v>7.5</v>
@@ -3694,12 +3631,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:19" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F28" s="2">
         <v>7</v>
@@ -3744,12 +3681,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="31" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3762,22 +3699,22 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="D4:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="23.28515625" style="21"/>
-    <col min="7" max="7" width="26.7109375" style="21" customWidth="1"/>
-    <col min="8" max="9" width="23.28515625" style="21"/>
-    <col min="10" max="10" width="27.140625" style="21" customWidth="1"/>
-    <col min="11" max="12" width="23.28515625" style="21"/>
-    <col min="13" max="13" width="32.140625" style="21" customWidth="1"/>
-    <col min="14" max="16384" width="23.28515625" style="21"/>
+    <col min="1" max="6" width="23.33203125" style="21"/>
+    <col min="7" max="7" width="26.6640625" style="21" customWidth="1"/>
+    <col min="8" max="9" width="23.33203125" style="21"/>
+    <col min="10" max="10" width="27.1640625" style="21" customWidth="1"/>
+    <col min="11" max="12" width="23.33203125" style="21"/>
+    <col min="13" max="13" width="32.1640625" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="23.33203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:20" ht="15" x14ac:dyDescent="0.25">
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3793,68 +3730,68 @@
       <c r="S4" s="10"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="4:20" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="21">
         <v>8</v>
@@ -3899,15 +3836,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="23">
         <v>7</v>
@@ -3952,16 +3889,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="23">
         <v>7</v>
       </c>
@@ -4005,15 +3942,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D9" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="21">
         <v>7</v>
@@ -4058,15 +3995,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="23">
         <v>8</v>
@@ -4111,15 +4048,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D11" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="23">
         <v>8</v>
@@ -4164,15 +4101,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D12" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" s="23">
         <v>8</v>
@@ -4217,15 +4154,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" s="23">
         <v>8</v>
@@ -4270,15 +4207,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D14" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="23">
         <v>8</v>
@@ -4323,15 +4260,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D15" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="23">
         <v>8</v>
@@ -4376,15 +4313,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="G16" s="23">
         <v>8</v>
@@ -4429,16 +4366,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="G17" s="21">
         <v>8</v>
       </c>
@@ -4482,15 +4419,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D18" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" s="23">
         <v>8</v>
@@ -4535,15 +4472,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F19" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G19" s="23">
         <v>8</v>
@@ -4588,15 +4525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G20" s="23">
         <v>7</v>
@@ -4641,15 +4578,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D21" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21" s="23">
         <v>7</v>
@@ -4694,15 +4631,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F22" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G22" s="23">
         <v>8</v>
@@ -4747,15 +4684,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D23" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G23" s="23">
         <v>7</v>
@@ -4800,15 +4737,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D24" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G24" s="23">
         <v>7</v>
@@ -4853,15 +4790,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F25" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G25" s="23">
         <v>8</v>
@@ -4906,15 +4843,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D26" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26" s="23">
         <v>8</v>
@@ -4959,15 +4896,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G27" s="21">
         <v>8</v>
@@ -5012,15 +4949,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="F28" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G28" s="23">
         <v>8</v>
@@ -5065,69 +5002,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="23">
+        <v>7</v>
+      </c>
+      <c r="H29" s="23">
+        <v>8</v>
+      </c>
+      <c r="I29" s="23">
+        <v>0</v>
+      </c>
+      <c r="J29" s="23">
+        <v>7</v>
+      </c>
+      <c r="K29" s="23">
+        <v>2</v>
+      </c>
+      <c r="L29" s="23">
+        <v>7</v>
+      </c>
+      <c r="M29" s="23">
+        <v>6</v>
+      </c>
+      <c r="N29" s="23">
+        <v>5</v>
+      </c>
+      <c r="O29" s="23">
+        <v>7</v>
+      </c>
+      <c r="P29" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>1</v>
+      </c>
+      <c r="R29" s="23">
+        <v>5</v>
+      </c>
+      <c r="S29" s="23">
+        <v>1</v>
+      </c>
+      <c r="T29" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="23">
-        <v>7</v>
-      </c>
-      <c r="H29" s="23">
-        <v>8</v>
-      </c>
-      <c r="I29" s="23">
-        <v>0</v>
-      </c>
-      <c r="J29" s="23">
-        <v>7</v>
-      </c>
-      <c r="K29" s="23">
-        <v>2</v>
-      </c>
-      <c r="L29" s="23">
-        <v>7</v>
-      </c>
-      <c r="M29" s="23">
-        <v>6</v>
-      </c>
-      <c r="N29" s="23">
-        <v>5</v>
-      </c>
-      <c r="O29" s="23">
-        <v>7</v>
-      </c>
-      <c r="P29" s="23">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>1</v>
-      </c>
-      <c r="R29" s="23">
-        <v>5</v>
-      </c>
-      <c r="S29" s="23">
-        <v>1</v>
-      </c>
-      <c r="T29" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="G30" s="15">
         <v>7</v>
       </c>
@@ -5171,15 +5108,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="4:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G31" s="15">
         <v>7.5</v>
@@ -5224,15 +5161,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D32" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="G32" s="15">
         <v>7.5</v>
@@ -5277,15 +5214,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D33" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G33" s="15">
         <v>8</v>
@@ -5330,15 +5267,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D34" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G34" s="15">
         <v>7.5</v>
@@ -5383,15 +5320,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D35" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35" s="15">
         <v>7.5</v>
@@ -5436,15 +5373,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D36" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36" s="15">
         <v>7.5</v>
@@ -5489,15 +5426,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D37" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G37" s="15">
         <v>7.5</v>
@@ -5542,15 +5479,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D38" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G38" s="15">
         <v>7</v>
@@ -5595,15 +5532,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D39" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G39" s="15">
         <v>7</v>
@@ -5648,15 +5585,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D40" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G40" s="15">
         <v>7.5</v>
@@ -5701,15 +5638,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D41" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" s="15">
         <v>7.5</v>
@@ -5754,15 +5691,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D42" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G42" s="15">
         <v>7.5</v>
@@ -5807,15 +5744,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D43" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43" s="15">
         <v>7.5</v>
@@ -5860,15 +5797,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D44" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G44" s="15">
         <v>7.5</v>
@@ -5913,15 +5850,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D45" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G45" s="15">
         <v>8</v>
@@ -5966,15 +5903,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D46" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G46" s="15">
         <v>7.5</v>
@@ -6019,15 +5956,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D47" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G47" s="15">
         <v>7.5</v>
@@ -6072,15 +6009,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D48" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G48" s="15">
         <v>8</v>
@@ -6125,15 +6062,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D49" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G49" s="15">
         <v>7.5</v>
@@ -6178,15 +6115,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D50" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G50" s="15">
         <v>7.5</v>
@@ -6231,15 +6168,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D51" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G51" s="15">
         <v>7</v>
@@ -6284,15 +6221,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D52" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G52" s="15">
         <v>7.5</v>
@@ -6337,15 +6274,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D53" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G53" s="15">
         <v>7</v>
@@ -6399,149 +6336,170 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F8DC7-509A-437D-91A2-92ABB5CA3E80}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="17"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" style="18"/>
-    <col min="5" max="5" width="31.42578125" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="14.85546875" style="18"/>
+    <col min="1" max="1" width="14.83203125" style="17"/>
+    <col min="2" max="2" width="28.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="18"/>
+    <col min="4" max="4" width="23.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="14.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>8.5</v>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>7.458333333333333</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>8.5416666666666661</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2.625</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>7</v>
+      <c r="C4" s="37"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>0.875</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
         <v>4</v>
       </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>1.7916666666666667</v>
+      </c>
       <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>2.5</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>7.625</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>1.5</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>1.7083333333333333</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>3.0833333333333335</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>1.9791666666666667</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>1.375</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>6.458333333333333</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>2.5416666666666665</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>1</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
